--- a/data/Apollo.xlsx
+++ b/data/Apollo.xlsx
@@ -1,26 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E378A0D-9BB1-458F-AE95-46B921F1703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="8400" windowHeight="2400"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+  <si>
+    <t>Apollo 11</t>
+  </si>
+  <si>
+    <t>16 Jul 1969</t>
+  </si>
+  <si>
+    <t>Sea of Tranquility</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Apollo 12</t>
+  </si>
+  <si>
+    <t>14 Nov 1969</t>
+  </si>
+  <si>
+    <t>Ocean of Storms</t>
+  </si>
+  <si>
+    <t>Apollo 13</t>
+  </si>
+  <si>
+    <t>11 Apr 1970</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Did not land on the moon, due to an equipment failure</t>
+  </si>
+  <si>
+    <t>Apollo 14</t>
+  </si>
+  <si>
+    <t>31 Jan 1971</t>
+  </si>
+  <si>
+    <t>Fra Mauro Plain</t>
+  </si>
+  <si>
+    <t>Apollo 15</t>
+  </si>
+  <si>
+    <t>26 Jul 1971</t>
+  </si>
+  <si>
+    <t>Hadley-Appenines</t>
+  </si>
+  <si>
+    <t>Apollo 16</t>
+  </si>
+  <si>
+    <t>16 Apr 1972</t>
+  </si>
+  <si>
+    <t>Descartes Highlands</t>
+  </si>
+  <si>
+    <t>Apollo 17</t>
+  </si>
+  <si>
+    <t>7 Dec 1972</t>
+  </si>
+  <si>
+    <t>Taurus-Littrow</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>launch_date</t>
+  </si>
+  <si>
+    <t>lunar_landing_site</t>
+  </si>
+  <si>
+    <t>distance_traveled_on_moon</t>
+  </si>
+  <si>
+    <t>mass_of_samples</t>
+  </si>
+  <si>
+    <t>mission_duration</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,19 +164,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -108,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,9 +258,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,6 +310,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,341 +503,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" s="0" outlineLevel="0">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Mission</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>LaunchDate</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LunarLandingSite</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DistanceTraveledOnMoon</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>MassOfSamples</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>MissionDuration</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="0" outlineLevel="0">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apollo 11</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>16 Jul 1969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sea of Tranquility</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8.14</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NASA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="0" outlineLevel="0">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Apollo 12</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14 Nov 1969</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ocean of Storms</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>1.4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>34</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>10.19</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="0" outlineLevel="0">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Apollo 13</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11 Apr 1970</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
-      <c r="E4" t="n">
-        <v/>
-      </c>
-      <c r="F4" t="n">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>5.95</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Did not land on the moon, due to an equipment failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="0" outlineLevel="0">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Apollo 14</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>31 Jan 1971</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Fra Mauro Plain</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>3.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.00</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="0" outlineLevel="0">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Apollo 15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>26 Jul 1971</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Hadley-Appenines</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
         <v>27.9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>77</v>
       </c>
-      <c r="F6" t="n">
-        <v>12.30</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="0" outlineLevel="0">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apollo 16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>16 Apr 1972</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Descartes Highlands</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="F6">
+        <v>12.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
         <v>96</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>11.08</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="0" outlineLevel="0">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Apollo 17</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7 Dec 1972</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Taurus-Littrow</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>110</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>12.58</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="0" outlineLevel="0">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -692,22 +737,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
